--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_26.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>730052.8091442131</v>
+        <v>750021.6384014427</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245799</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484449</v>
+        <v>492028.934248444</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7581781.341502558</v>
+        <v>7625973.263881786</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>252.7846849598199</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>38.7289877420133</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>106.2729872076964</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>38.26155316313545</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -883,7 +883,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>358.4193849698335</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>161.0734612100933</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1063,13 +1063,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>90.30617524481245</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>145.5015152065393</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>59.84852029105596</v>
+        <v>165.0699612865396</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1294,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1303,7 +1303,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>45.34507482238107</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1348,13 +1348,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1382,7 +1382,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>129.372720328348</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1421,10 +1421,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>206.4855017772222</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1540,13 +1540,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>24.34318456170492</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1591,7 +1591,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>152.7178278970208</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>33.08339867820243</v>
+        <v>32.67077719907196</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1768,22 +1768,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>109.1426757626851</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>172.4933240080319</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1819,7 +1819,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1844,7 +1844,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>165.7499153537889</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1901,7 +1901,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>90.97964783089149</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225706</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2068,7 +2068,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>64.34965323462509</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>129.3727203283469</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -2132,7 +2132,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2147,7 +2147,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>354.0586845844142</v>
       </c>
     </row>
     <row r="21">
@@ -2251,7 +2251,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>126.5517316786947</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2305,7 +2305,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>30.11288841831327</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2488,13 +2488,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>160.7884964950064</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>75.86622810093073</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2728,7 +2728,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225711</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2776,10 +2776,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>189.9879808696994</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -3001,7 +3001,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>103.8284742946039</v>
+        <v>103.8284742946034</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3199,10 +3199,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>3.139541480022899</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>22.28534392847749</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3430,19 +3430,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170453</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
@@ -3481,7 +3481,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>65.07405371603591</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3667,7 +3667,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3715,7 +3715,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>235.4893695038524</v>
+        <v>67.4289457920828</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3749,7 +3749,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948847</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
@@ -3797,7 +3797,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655126</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3904,7 +3904,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3913,10 +3913,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3964,7 +3964,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>217.2376502602773</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791327175</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4141,7 +4141,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>28.46824604904426</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4150,10 +4150,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4189,7 +4189,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>113.7218216744498</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4201,7 +4201,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>408.8145501306011</v>
+        <v>1670.308256514056</v>
       </c>
       <c r="C2" t="n">
-        <v>374.7124813544285</v>
+        <v>1232.165783697479</v>
       </c>
       <c r="D2" t="n">
-        <v>342.8431005692771</v>
+        <v>796.2559988719233</v>
       </c>
       <c r="E2" t="n">
-        <v>313.1087597679763</v>
+        <v>766.5216580706226</v>
       </c>
       <c r="F2" t="n">
-        <v>289.2817342175881</v>
+        <v>338.6542284798304</v>
       </c>
       <c r="G2" t="n">
-        <v>289.2817342175881</v>
+        <v>338.6542284798304</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.52407392304666</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018666</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>484.3619720031045</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>1092.064618311664</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>1092.064618311664</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>1092.064618311664</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>1092.064618311664</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1132.008730489121</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797681</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756276</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509333</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2371.71235369317</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>2151.645126566209</v>
       </c>
       <c r="U2" t="n">
-        <v>1217.893900270473</v>
+        <v>2151.645126566209</v>
       </c>
       <c r="V2" t="n">
-        <v>855.2769502042993</v>
+        <v>2151.645126566209</v>
       </c>
       <c r="W2" t="n">
-        <v>450.4214956153326</v>
+        <v>2150.830076017646</v>
       </c>
       <c r="X2" t="n">
-        <v>435.3194362350473</v>
+        <v>2135.728016637361</v>
       </c>
       <c r="Y2" t="n">
-        <v>431.0737165751048</v>
+        <v>2096.607826998963</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>1298.296211021817</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>1191.839749858459</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>1096.749461005013</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>1002.629046331966</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>919.2452079481279</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>833.8601182143118</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>792.1244660305242</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>792.1244660305242</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>1116.682790996736</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1724.385437305296</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1797.452510782917</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1797.452510782917</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1797.452510782917</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1797.452510782917</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1797.452510782917</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>2338.191449414993</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509333</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>2391.908789957716</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>2261.730146288318</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>2085.393599288286</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1886.276081350285</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>1700.95332708348</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>1546.085891322359</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>1419.60011210158</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>712.1505728739205</v>
+        <v>772.6600801510622</v>
       </c>
       <c r="C4" t="n">
-        <v>712.1505728739205</v>
+        <v>600.0983686342871</v>
       </c>
       <c r="D4" t="n">
-        <v>712.1505728739205</v>
+        <v>434.2203758358098</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>264.4623720865471</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>87.75531804830328</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>49.10728455018666</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>49.10728455018666</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018666</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>135.6869697148765</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>410.4454242860121</v>
       </c>
       <c r="L4" t="n">
-        <v>452.1535503695694</v>
+        <v>828.6553060539732</v>
       </c>
       <c r="M4" t="n">
-        <v>872.2064493144727</v>
+        <v>1288.139173234886</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1730.397976392531</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>2150.067225618312</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509333</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509333</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2433.946406214705</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>2274.705037512701</v>
       </c>
       <c r="T4" t="n">
-        <v>1516.524240083786</v>
+        <v>2274.705037512701</v>
       </c>
       <c r="U4" t="n">
-        <v>1516.524240083786</v>
+        <v>1996.272036765807</v>
       </c>
       <c r="V4" t="n">
-        <v>1229.568731954216</v>
+        <v>1709.316528636237</v>
       </c>
       <c r="W4" t="n">
-        <v>957.542327540508</v>
+        <v>1437.290124222529</v>
       </c>
       <c r="X4" t="n">
-        <v>712.1505728739205</v>
+        <v>1191.898369555941</v>
       </c>
       <c r="Y4" t="n">
-        <v>712.1505728739205</v>
+        <v>964.4786988700494</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>484.0636759001416</v>
+        <v>1671.95961582883</v>
       </c>
       <c r="C5" t="n">
-        <v>449.9616071239689</v>
+        <v>1637.857547052657</v>
       </c>
       <c r="D5" t="n">
-        <v>87.92182432615731</v>
+        <v>1201.947762227101</v>
       </c>
       <c r="E5" t="n">
-        <v>58.18748352485655</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>1107.976466382457</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>1334.566480014244</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>929.7110254252771</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X5" t="n">
-        <v>510.5685620045878</v>
+        <v>2506.545310014084</v>
       </c>
       <c r="Y5" t="n">
-        <v>506.3228423446453</v>
+        <v>2098.259186313737</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1113.00182921349</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C7" t="n">
-        <v>940.4401176967148</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="D7" t="n">
-        <v>774.5621248982375</v>
+        <v>403.0375283363599</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>233.2795245870971</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>233.2795245870971</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>233.2795245870971</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1697.183430080417</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W7" t="n">
-        <v>1550.212202599065</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1304.820447932477</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y7" t="n">
-        <v>1304.820447932477</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1392.134372851944</v>
+        <v>710.0264917116014</v>
       </c>
       <c r="C8" t="n">
-        <v>1331.681322052897</v>
+        <v>543.2891570787331</v>
       </c>
       <c r="D8" t="n">
-        <v>895.771537227342</v>
+        <v>511.4197762935816</v>
       </c>
       <c r="E8" t="n">
-        <v>461.9967923856372</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F8" t="n">
-        <v>438.169766835249</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>36.77193545851284</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851284</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>36.77193545851284</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>473.4386690283529</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>473.4386690283529</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>473.4386690283529</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>473.4386690283529</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>928.4913703274493</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1383.544071626546</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1838.596772925642</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925642</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925642</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1838.596772925642</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>1838.596772925642</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.596772925642</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.78172237708</v>
+        <v>1559.714245277141</v>
       </c>
       <c r="X8" t="n">
-        <v>1822.679662996794</v>
+        <v>1140.571781856452</v>
       </c>
       <c r="Y8" t="n">
-        <v>1414.393539296448</v>
+        <v>1136.326062196509</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498056</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864479</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.3969304330012</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599549</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761165</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230036</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897044</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851828</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842792</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>842.4466348842792</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>842.4466348842792</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>842.4466348842792</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1127.786217543885</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543885</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.733360750348</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295687</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>555.7987047627944</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>383.2369932460194</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>383.2369932460194</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4789894967566</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>36.77193545851284</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G10" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>123.3516206232027</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>123.3516206232027</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>541.5615023911638</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>541.5615023911638</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>903.2278548651868</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1322.897104090968</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1670.40399806131</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925642</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1817.178951631014</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1771.375845749821</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1525.496399328276</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1247.063398581382</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1247.063398581382</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>975.0369941676734</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>975.0369941676734</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>747.6173234817816</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2523.375184062124</v>
+        <v>2252.656868168568</v>
       </c>
       <c r="C11" t="n">
-        <v>2085.232711245547</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419992</v>
+        <v>1378.604610526436</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578287</v>
+        <v>944.829865684731</v>
       </c>
       <c r="F11" t="n">
-        <v>787.680751987495</v>
+        <v>516.9624360939388</v>
       </c>
       <c r="G11" t="n">
         <v>386.2829206107589</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397516</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J11" t="n">
-        <v>531.9906641340331</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.340956092211</v>
+        <v>111.8654922511001</v>
       </c>
       <c r="L11" t="n">
-        <v>2312.656441940404</v>
+        <v>1186.925458503959</v>
       </c>
       <c r="M11" t="n">
-        <v>2312.656441940404</v>
+        <v>1186.925458503959</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940404</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.83610851071</v>
+        <v>3292.836108510713</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344106</v>
+        <v>4121.145983344109</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302701</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239595</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T11" t="n">
-        <v>4753.146960239595</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U11" t="n">
-        <v>4544.575746323208</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.958796257034</v>
+        <v>3911.240480363478</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.103341668068</v>
+        <v>3506.385025774512</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.960878247378</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.674754547032</v>
+        <v>2678.956438653476</v>
       </c>
     </row>
     <row r="12">
@@ -5112,13 +5112,13 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7996498415728</v>
+        <v>96.77217639691919</v>
       </c>
       <c r="J12" t="n">
-        <v>447.3579748077851</v>
+        <v>421.3305013631315</v>
       </c>
       <c r="K12" t="n">
         <v>1102.064021433509</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>806.2298140987272</v>
+        <v>1175.794137292997</v>
       </c>
       <c r="C13" t="n">
-        <v>633.6681025819521</v>
+        <v>1003.232425776221</v>
       </c>
       <c r="D13" t="n">
-        <v>467.7901097834749</v>
+        <v>837.3544329777442</v>
       </c>
       <c r="E13" t="n">
-        <v>298.0321060342121</v>
+        <v>667.5964292284815</v>
       </c>
       <c r="F13" t="n">
-        <v>121.3250519959684</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111516</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111516</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J13" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K13" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N13" t="n">
         <v>1778.026668523459</v>
@@ -5230,19 +5230,19 @@
         <v>2308.274771460367</v>
       </c>
       <c r="U13" t="n">
-        <v>2029.841770713472</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="V13" t="n">
-        <v>1742.886262583902</v>
+        <v>2021.319263330797</v>
       </c>
       <c r="W13" t="n">
-        <v>1470.859858170194</v>
+        <v>1749.292858917089</v>
       </c>
       <c r="X13" t="n">
-        <v>1225.468103503606</v>
+        <v>1595.032426697876</v>
       </c>
       <c r="Y13" t="n">
-        <v>998.0484328177142</v>
+        <v>1367.612756011984</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.958394689265</v>
+        <v>2523.375184062125</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.815921872688</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.906137047133</v>
+        <v>1649.322926419993</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.131392205428</v>
+        <v>1215.548181578288</v>
       </c>
       <c r="F14" t="n">
-        <v>787.2639626146356</v>
+        <v>787.6807519874956</v>
       </c>
       <c r="G14" t="n">
-        <v>385.866131237899</v>
+        <v>386.282920610759</v>
       </c>
       <c r="H14" t="n">
-        <v>96.73597668111518</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J14" t="n">
         <v>531.9906641340331</v>
@@ -5285,16 +5285,16 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M14" t="n">
-        <v>2441.40092234507</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="N14" t="n">
-        <v>2481.810506693462</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="O14" t="n">
-        <v>3461.990173263768</v>
+        <v>3461.990173263769</v>
       </c>
       <c r="P14" t="n">
-        <v>4290.300048097164</v>
+        <v>4290.300048097165</v>
       </c>
       <c r="Q14" t="n">
         <v>4836.798834055759</v>
@@ -5303,25 +5303,25 @@
         <v>4836.798834055759</v>
       </c>
       <c r="S14" t="n">
-        <v>4803.381259633332</v>
+        <v>4803.798049006192</v>
       </c>
       <c r="T14" t="n">
-        <v>4803.381259633332</v>
+        <v>4803.798049006192</v>
       </c>
       <c r="U14" t="n">
-        <v>4544.158956950349</v>
+        <v>4544.575746323208</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.542006884175</v>
+        <v>4181.958796257035</v>
       </c>
       <c r="W14" t="n">
-        <v>3776.686552295208</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.544088874519</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.257965174173</v>
+        <v>2949.674754547033</v>
       </c>
     </row>
     <row r="15">
@@ -5349,13 +5349,13 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7996498415728</v>
+        <v>96.77217639691919</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3579748077851</v>
+        <v>421.3305013631315</v>
       </c>
       <c r="K15" t="n">
         <v>1102.064021433509</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>784.8119928040993</v>
+        <v>1084.662814845622</v>
       </c>
       <c r="C16" t="n">
-        <v>612.2502812873242</v>
+        <v>912.1011033288469</v>
       </c>
       <c r="D16" t="n">
-        <v>502.0051542543091</v>
+        <v>746.2231105303697</v>
       </c>
       <c r="E16" t="n">
-        <v>502.0051542543091</v>
+        <v>576.4651067811069</v>
       </c>
       <c r="F16" t="n">
-        <v>325.2981002160653</v>
+        <v>402.229425964913</v>
       </c>
       <c r="G16" t="n">
-        <v>325.2981002160653</v>
+        <v>236.6381509907407</v>
       </c>
       <c r="H16" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J16" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K16" t="n">
         <v>458.0741164169406</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2691.977765289287</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2532.736396587283</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T16" t="n">
-        <v>2286.856950165738</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U16" t="n">
-        <v>2008.423949418844</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="V16" t="n">
-        <v>1721.468441289274</v>
+        <v>2021.319263330797</v>
       </c>
       <c r="W16" t="n">
-        <v>1449.442036875566</v>
+        <v>1749.292858917088</v>
       </c>
       <c r="X16" t="n">
-        <v>1204.050282208978</v>
+        <v>1503.901104250501</v>
       </c>
       <c r="Y16" t="n">
-        <v>976.6306115230864</v>
+        <v>1276.481433564609</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2252.656868168567</v>
+        <v>2523.375184062125</v>
       </c>
       <c r="C17" t="n">
         <v>2085.232711245548</v>
       </c>
       <c r="D17" t="n">
-        <v>1649.322926419992</v>
+        <v>1649.322926419993</v>
       </c>
       <c r="E17" t="n">
         <v>1215.548181578287</v>
@@ -5507,34 +5507,34 @@
         <v>386.2829206107589</v>
       </c>
       <c r="H17" t="n">
-        <v>97.15276605397517</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I17" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J17" t="n">
-        <v>531.9906641340331</v>
+        <v>403.2461837293691</v>
       </c>
       <c r="K17" t="n">
-        <v>1366.340956092211</v>
+        <v>1237.596475687547</v>
       </c>
       <c r="L17" t="n">
-        <v>2441.40092234507</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="M17" t="n">
-        <v>2441.40092234507</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="N17" t="n">
-        <v>2481.810506693462</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="O17" t="n">
-        <v>3461.990173263768</v>
+        <v>3292.836108510713</v>
       </c>
       <c r="P17" t="n">
-        <v>4290.300048097164</v>
+        <v>4121.145983344109</v>
       </c>
       <c r="Q17" t="n">
-        <v>4836.798834055759</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="R17" t="n">
         <v>4836.798834055759</v>
@@ -5543,22 +5543,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T17" t="n">
-        <v>4533.079733112634</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U17" t="n">
-        <v>4273.857430429651</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V17" t="n">
-        <v>3911.240480363477</v>
+        <v>4181.958796257035</v>
       </c>
       <c r="W17" t="n">
-        <v>3506.385025774511</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X17" t="n">
-        <v>3087.242562353822</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y17" t="n">
-        <v>2678.956438653475</v>
+        <v>2949.674754547033</v>
       </c>
     </row>
     <row r="18">
@@ -5586,28 +5586,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I18" t="n">
-        <v>96.73597668111518</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J18" t="n">
-        <v>421.2943016473275</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K18" t="n">
-        <v>1102.027821717705</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L18" t="n">
-        <v>1102.027821717705</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M18" t="n">
-        <v>1102.027821717705</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N18" t="n">
-        <v>1102.027821717705</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O18" t="n">
-        <v>1102.027821717705</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P18" t="n">
         <v>1102.064021433509</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>947.2320137580465</v>
+        <v>947.2320137580464</v>
       </c>
       <c r="C19" t="n">
-        <v>774.6703022412714</v>
+        <v>774.6703022412713</v>
       </c>
       <c r="D19" t="n">
-        <v>608.7923094427941</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E19" t="n">
         <v>439.0343056935313</v>
@@ -5662,16 +5662,16 @@
         <v>262.3272516552875</v>
       </c>
       <c r="G19" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="H19" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J19" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K19" t="n">
         <v>458.0741164169406</v>
@@ -5695,25 +5695,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R19" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S19" t="n">
-        <v>2695.15641754123</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T19" t="n">
-        <v>2449.276971119686</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U19" t="n">
-        <v>2170.843970372791</v>
+        <v>2008.423949418844</v>
       </c>
       <c r="V19" t="n">
-        <v>1883.888462243221</v>
+        <v>1721.468441289274</v>
       </c>
       <c r="W19" t="n">
-        <v>1611.862057829513</v>
+        <v>1449.442036875566</v>
       </c>
       <c r="X19" t="n">
-        <v>1366.470303162925</v>
+        <v>1204.050282208978</v>
       </c>
       <c r="Y19" t="n">
         <v>1139.050632477034</v>
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2252.656868168567</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C20" t="n">
-        <v>1814.51439535199</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D20" t="n">
-        <v>1378.604610526434</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E20" t="n">
-        <v>944.8298656847298</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F20" t="n">
-        <v>516.9624360939376</v>
+        <v>787.6807519874951</v>
       </c>
       <c r="G20" t="n">
-        <v>386.2829206107589</v>
+        <v>386.282920610759</v>
       </c>
       <c r="H20" t="n">
-        <v>97.15276605397517</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I20" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J20" t="n">
         <v>531.9906641340331</v>
@@ -5756,22 +5756,22 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L20" t="n">
-        <v>2441.40092234507</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="M20" t="n">
-        <v>2441.40092234507</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="N20" t="n">
-        <v>2441.40092234507</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="O20" t="n">
-        <v>3421.580588915377</v>
+        <v>3292.836108510713</v>
       </c>
       <c r="P20" t="n">
-        <v>4249.890463748773</v>
+        <v>4121.145983344109</v>
       </c>
       <c r="Q20" t="n">
-        <v>4796.389249707368</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="R20" t="n">
         <v>4836.798834055759</v>
@@ -5780,22 +5780,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T20" t="n">
-        <v>4533.079733112634</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="U20" t="n">
-        <v>4273.857430429651</v>
+        <v>4493.924657556613</v>
       </c>
       <c r="V20" t="n">
-        <v>3911.240480363477</v>
+        <v>4131.307707490439</v>
       </c>
       <c r="W20" t="n">
-        <v>3506.385025774511</v>
+        <v>3726.452252901473</v>
       </c>
       <c r="X20" t="n">
-        <v>3087.242562353822</v>
+        <v>3307.309789480784</v>
       </c>
       <c r="Y20" t="n">
-        <v>2678.956438653475</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="21">
@@ -5823,7 +5823,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I21" t="n">
         <v>122.7996498415728</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1003.232425776222</v>
+        <v>965.4711828007308</v>
       </c>
       <c r="C22" t="n">
-        <v>1003.232425776222</v>
+        <v>965.4711828007308</v>
       </c>
       <c r="D22" t="n">
-        <v>837.3544329777443</v>
+        <v>799.5931900022536</v>
       </c>
       <c r="E22" t="n">
-        <v>667.5964292284816</v>
+        <v>629.8351862529908</v>
       </c>
       <c r="F22" t="n">
-        <v>490.8893751902378</v>
+        <v>453.1281322147469</v>
       </c>
       <c r="G22" t="n">
-        <v>325.2981002160655</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H22" t="n">
-        <v>185.39592590644</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I22" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J22" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K22" t="n">
         <v>458.0741164169406</v>
@@ -5932,28 +5932,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R22" t="n">
-        <v>2713.395586583914</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S22" t="n">
-        <v>2554.154217881911</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="T22" t="n">
-        <v>2308.274771460366</v>
+        <v>2467.51614016237</v>
       </c>
       <c r="U22" t="n">
-        <v>2029.841770713471</v>
+        <v>2189.083139415475</v>
       </c>
       <c r="V22" t="n">
-        <v>1742.886262583902</v>
+        <v>1902.127631285906</v>
       </c>
       <c r="W22" t="n">
-        <v>1470.859858170194</v>
+        <v>1630.101226872197</v>
       </c>
       <c r="X22" t="n">
-        <v>1225.468103503606</v>
+        <v>1384.70947220561</v>
       </c>
       <c r="Y22" t="n">
-        <v>1195.051044495209</v>
+        <v>1157.289801519718</v>
       </c>
     </row>
     <row r="23">
@@ -6063,10 +6063,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2970399865835</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
         <v>1107.588885023173</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>949.5782250957673</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C25" t="n">
-        <v>777.0165135789922</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>611.1385207805149</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>441.3805170312521</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>264.6734629930083</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2451.623182457406</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U25" t="n">
-        <v>2173.190181710511</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V25" t="n">
-        <v>1886.234673580942</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W25" t="n">
-        <v>1614.208269167233</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X25" t="n">
-        <v>1368.816514500646</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y25" t="n">
-        <v>1141.396843814754</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>3137.402081918264</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>4117.581748488571</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>4945.891623321967</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>4945.891623321967</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1092.659051657336</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C28" t="n">
-        <v>920.0973401405612</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D28" t="n">
-        <v>754.2193473420839</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E28" t="n">
-        <v>584.4613435928212</v>
+        <v>462.7983383258797</v>
       </c>
       <c r="F28" t="n">
-        <v>407.7542895545774</v>
+        <v>286.0912842876359</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173567</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759858</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X28" t="n">
-        <v>1284.477670376324</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y28" t="n">
-        <v>1284.477670376323</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="29">
@@ -6461,25 +6461,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N29" t="n">
-        <v>2758.053686176683</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O29" t="n">
-        <v>3738.23335274699</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P29" t="n">
-        <v>4566.543227580386</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
         <v>5113.04201353898</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>927.0677766831641</v>
+        <v>790.3368563937637</v>
       </c>
       <c r="C34" t="n">
-        <v>754.506065166389</v>
+        <v>617.7751448769886</v>
       </c>
       <c r="D34" t="n">
-        <v>588.6280723679117</v>
+        <v>451.8971520785113</v>
       </c>
       <c r="E34" t="n">
-        <v>418.8700686186489</v>
+        <v>282.1391483292486</v>
       </c>
       <c r="F34" t="n">
-        <v>242.1630145804051</v>
+        <v>105.4320942910048</v>
       </c>
       <c r="G34" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6883,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2674.992180466348</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2429.112734044803</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2150.679733297909</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>1863.724225168339</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W34" t="n">
-        <v>1591.697820754631</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X34" t="n">
-        <v>1346.306066088043</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y34" t="n">
-        <v>1118.886395402151</v>
+        <v>982.1554751127508</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6935,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7011,10 +7011,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2970399865835</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
         <v>1107.588885023173</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1011.560997133398</v>
+        <v>811.7546776883917</v>
       </c>
       <c r="C37" t="n">
-        <v>838.9992856166232</v>
+        <v>639.1929661716166</v>
       </c>
       <c r="D37" t="n">
-        <v>673.1212928181459</v>
+        <v>473.3149733731393</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238765</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856327</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1948.217445618573</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W37" t="n">
-        <v>1676.191041204865</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>1430.799286538277</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y37" t="n">
-        <v>1203.379615852385</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="38">
@@ -7160,13 +7160,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7248,28 +7248,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2970399865835</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q39" t="n">
         <v>1648.327823655249</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1011.560997133398</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C40" t="n">
-        <v>838.9992856166233</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>673.1212928181459</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
         <v>673.1212928181459</v>
@@ -7321,7 +7321,7 @@
         <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057297</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
         <v>190.9207894961043</v>
@@ -7360,22 +7360,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2473.041003752034</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U40" t="n">
-        <v>2235.172953748142</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V40" t="n">
-        <v>1948.217445618573</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W40" t="n">
-        <v>1676.191041204865</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X40" t="n">
-        <v>1430.799286538277</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y40" t="n">
-        <v>1203.379615852386</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="41">
@@ -7400,7 +7400,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
         <v>102.6776296436396</v>
@@ -7409,52 +7409,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1011.560997133398</v>
+        <v>952.7568773477105</v>
       </c>
       <c r="C43" t="n">
-        <v>838.9992856166232</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D43" t="n">
-        <v>673.1212928181459</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E43" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F43" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7570,49 +7570,49 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>463.5989800066089</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>881.8088617745699</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1341.292728955483</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1783.551532113127</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2203.220781338909</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2550.727675309251</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2559.67908147158</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2313.799635050035</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2035.36663430314</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.41112617357</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W43" t="n">
-        <v>1476.384721759862</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1230.992967093275</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1011.560997133398</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771609</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004247</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436396</v>
+        <v>102.677629643641</v>
       </c>
       <c r="I44" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N44" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883918</v>
       </c>
       <c r="C46" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716167</v>
       </c>
       <c r="D46" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731394</v>
       </c>
       <c r="E46" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7828,28 +7828,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2177.511286811514</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1890.555778681944</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W46" t="n">
-        <v>1618.529374268236</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X46" t="n">
-        <v>1373.137619601648</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y46" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773331</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>40.34758805803722</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773334</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8052,16 +8052,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773331</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>73.80512472486998</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,25 +8134,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>308.3808099909302</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>441.0775086564041</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314105</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314105</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314107</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314106</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>288.2218006662688</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314107</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8611,16 +8611,16 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>365.3195479535586</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8687,19 +8687,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>15.28233895958067</v>
       </c>
       <c r="L11" t="n">
-        <v>955.8742281294876</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8763,13 +8763,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949898737</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8933,10 +8933,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="N14" t="n">
-        <v>40.81776196807232</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9000,13 +9000,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949898737</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>309.6062697457111</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>40.81776196807232</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,13 +9237,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9404,7 +9404,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294903</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>40.81776196807186</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9711,13 +9711,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9881,10 +9881,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9893,10 +9893,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>168.8387779969835</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>314.2706063049986</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10592,22 +10592,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,13 +10659,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.03656536949884526</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -10905,7 +10905,7 @@
         <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10920,7 +10920,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>268.0111327346208</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>50.14457787893105</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>90.22000922290081</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>49.73195639979893</v>
+        <v>50.1445778789294</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>55.07653710780744</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>2.446659489829443</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>268.011132734622</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>268.0111327346202</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>160.7958207444077</v>
       </c>
     </row>
     <row r="20">
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>268.0111327346219</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>50.14457787892889</v>
       </c>
     </row>
     <row r="21">
@@ -24139,7 +24139,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>37.3836305457359</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>195.0325855607195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>3.146865729424178</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>208.2197249473431</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>52.94985625022227</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>139.5921776627254</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25087,10 +25087,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7958207444077</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>135.3636110865058</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>219.0118993322379</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>40.15930123557334</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627256</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>7.907823718755452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26029,7 +26029,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>161.926849064976</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>632687.0780469076</v>
+        <v>646294.0492592697</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>632687.0780469076</v>
+        <v>650147.1809276418</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>635225.0047415219</v>
+        <v>650147.1809276418</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>646339.2019052008</v>
+        <v>646339.2019052011</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>646339.2019052008</v>
+        <v>646339.201905201</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>646339.201905201</v>
+        <v>646339.2019052011</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>646339.201905201</v>
+        <v>646339.2019052011</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>673615.4548090578</v>
+        <v>673615.4548090576</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>673615.4548090579</v>
+        <v>673615.4548090578</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>673615.454809058</v>
+        <v>673615.4548090578</v>
       </c>
     </row>
     <row r="16">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348495.7579287653</v>
+        <v>348495.7579287655</v>
       </c>
       <c r="C2" t="n">
-        <v>348495.7579287653</v>
+        <v>348495.7579287655</v>
       </c>
       <c r="D2" t="n">
         <v>348495.7579287654</v>
@@ -26323,37 +26323,37 @@
         <v>328590.5336815896</v>
       </c>
       <c r="F2" t="n">
-        <v>328590.5336815896</v>
+        <v>328590.5336815897</v>
       </c>
       <c r="G2" t="n">
-        <v>328590.5336815896</v>
+        <v>328590.5336815897</v>
       </c>
       <c r="H2" t="n">
-        <v>328590.5336815896</v>
+        <v>328590.5336815898</v>
       </c>
       <c r="I2" t="n">
         <v>342457.4296892789</v>
       </c>
       <c r="J2" t="n">
-        <v>342457.4296892788</v>
+        <v>342457.4296892789</v>
       </c>
       <c r="K2" t="n">
         <v>342457.4296892789</v>
       </c>
       <c r="L2" t="n">
-        <v>342457.4296892788</v>
+        <v>342457.4296892789</v>
       </c>
       <c r="M2" t="n">
         <v>342457.4296892789</v>
       </c>
       <c r="N2" t="n">
-        <v>342457.4296892788</v>
+        <v>342457.4296892789</v>
       </c>
       <c r="O2" t="n">
-        <v>342457.4296892789</v>
+        <v>342457.429689279</v>
       </c>
       <c r="P2" t="n">
-        <v>342457.4296892788</v>
+        <v>342457.4296892791</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039026</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390701</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200304</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520269</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.71563283952</v>
+        <v>18364.71563283946</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.829485613</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784543</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088510197</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104673</v>
+        <v>134989.9446130035</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212093.1194372179</v>
+        <v>182320.3813513284</v>
       </c>
       <c r="C4" t="n">
-        <v>212093.1194372179</v>
+        <v>173889.5352664431</v>
       </c>
       <c r="D4" t="n">
-        <v>206540.0080518353</v>
+        <v>173889.5352664431</v>
       </c>
       <c r="E4" t="n">
-        <v>91036.59625752566</v>
+        <v>91036.59625752569</v>
       </c>
       <c r="F4" t="n">
         <v>91036.59625752567</v>
       </c>
       <c r="G4" t="n">
-        <v>91036.59625752567</v>
+        <v>91036.5962575257</v>
       </c>
       <c r="H4" t="n">
         <v>91036.59625752569</v>
       </c>
       <c r="I4" t="n">
-        <v>94878.44464875291</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="J4" t="n">
-        <v>94878.44464875289</v>
+        <v>94878.44464875288</v>
       </c>
       <c r="K4" t="n">
-        <v>94878.44464875289</v>
+        <v>94878.44464875288</v>
       </c>
       <c r="L4" t="n">
         <v>94878.44464875289</v>
       </c>
       <c r="M4" t="n">
-        <v>94878.44464875288</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="N4" t="n">
+        <v>94878.44464875289</v>
+      </c>
+      <c r="O4" t="n">
         <v>94878.44464875291</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>94878.44464875289</v>
-      </c>
-      <c r="P4" t="n">
-        <v>94878.44464875288</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814187</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846976</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="G5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="H5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26503,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-65213.45030538487</v>
+        <v>-110486.0161846073</v>
       </c>
       <c r="C6" t="n">
-        <v>76977.85035432508</v>
+        <v>83053.15372665769</v>
       </c>
       <c r="D6" t="n">
-        <v>69399.67225645727</v>
+        <v>100393.6981005646</v>
       </c>
       <c r="E6" t="n">
-        <v>-59764.69860561051</v>
+        <v>2222.961381505148</v>
       </c>
       <c r="F6" t="n">
-        <v>164034.5951464165</v>
+        <v>163958.0365916197</v>
       </c>
       <c r="G6" t="n">
-        <v>164034.5951464164</v>
+        <v>163958.0365916196</v>
       </c>
       <c r="H6" t="n">
-        <v>164034.5951464164</v>
+        <v>163958.0365916197</v>
       </c>
       <c r="I6" t="n">
-        <v>151496.0308018939</v>
+        <v>151472.8064625114</v>
       </c>
       <c r="J6" t="n">
-        <v>58846.28108974325</v>
+        <v>9229.692609737869</v>
       </c>
       <c r="K6" t="n">
-        <v>169860.7464347335</v>
+        <v>156023.5135275054</v>
       </c>
       <c r="L6" t="n">
-        <v>160913.1353462232</v>
+        <v>169837.5220953508</v>
       </c>
       <c r="M6" t="n">
-        <v>-16930.24017573385</v>
+        <v>34847.57748234734</v>
       </c>
       <c r="N6" t="n">
-        <v>169860.7464347334</v>
+        <v>169837.5220953508</v>
       </c>
       <c r="O6" t="n">
-        <v>169860.7464347335</v>
+        <v>169837.5220953509</v>
       </c>
       <c r="P6" t="n">
-        <v>169860.7464347334</v>
+        <v>169837.522095351</v>
       </c>
     </row>
   </sheetData>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773332</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314105</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="F4" t="n">
         <v>1209.19970851394</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773332</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052371</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130619</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825289</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080569</v>
+        <v>69.06079487080547</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773332</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052371</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130619</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825289</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773332</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052371</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130619</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825289</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>33.45416805139601</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>365.4742747213298</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>61.78743650407374</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>125.6738090612951</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27591,7 +27591,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>73.13130200746645</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>253.8775775763891</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27783,13 +27783,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>48.19697732171677</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>123.8046251630321</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>268.6910868018713</v>
+      </c>
+      <c r="D8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
-        <v>373.912527797355</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>400</v>
-      </c>
-      <c r="X8" t="n">
-        <v>400</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,7 +28023,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -28059,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>112.3038801926022</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,13 +28068,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773331</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>40.34758805803722</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773334</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773331</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>73.80512472486998</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,25 +34854,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>308.3808099909302</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>441.0775086564041</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314105</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314105</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314107</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314106</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>288.2218006662688</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314107</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>365.3195479535586</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>15.28233895958067</v>
       </c>
       <c r="L11" t="n">
-        <v>955.8742281294876</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697549</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949898737</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35653,10 +35653,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="N14" t="n">
-        <v>40.81776196807232</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949898737</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>309.6062697457111</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -35893,7 +35893,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>40.81776196807232</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36124,7 +36124,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294903</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -36136,13 +36136,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>40.81776196807186</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>168.8387779969835</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>314.2706063049986</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>-6.786426882829224e-13</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -37005,7 +37005,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
-        <v>351.0170646165075</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
         <v>169.8916917821539</v>
@@ -37239,13 +37239,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37476,13 +37476,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.03656536949884526</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37625,7 +37625,7 @@
         <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37713,7 +37713,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924961004</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080415</v>
@@ -37950,7 +37950,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
